--- a/Sheets/masks.xlsx
+++ b/Sheets/masks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\covid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\covid\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8DA2FCF9-14E4-45E3-B75B-2B72E50FF236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FB4CA3-B605-4C0D-BC81-FCB72E062ECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16297" yWindow="-12922" windowWidth="16395" windowHeight="28544"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="18225" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data-AD5p1" sheetId="1" r:id="rId1"/>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1097,11 +1097,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1483,7 +1483,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">

--- a/Sheets/masks.xlsx
+++ b/Sheets/masks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\covid\Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb8c4cdaff1cb2e3/Documents/Google Drive/Projects/covid/Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FB4CA3-B605-4C0D-BC81-FCB72E062ECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A7FB4CA3-B605-4C0D-BC81-FCB72E062ECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8CBF1FDF-AC98-4B06-A04D-A17526465C7F}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="18225" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="20175" windowHeight="13718" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data-AD5p1" sheetId="1" r:id="rId1"/>
@@ -1100,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1204,7 +1204,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>61</v>
